--- a/src/test/resources/com/sirion/xls/PurchaseOrder Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/PurchaseOrder Suite.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -131,22 +131,22 @@
     <t>poRequisitionNumber</t>
   </si>
   <si>
+    <t>Cartridges - 6</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Cartridges - 6</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>PI 241</t>
-  </si>
-  <si>
-    <t>PI 242</t>
-  </si>
-  <si>
-    <t>PI 243</t>
+    <t>PI 144</t>
+  </si>
+  <si>
+    <t>PI 142</t>
+  </si>
+  <si>
+    <t>PI 143</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -617,11 +617,9 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
   </sheetData>
@@ -704,13 +702,13 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
@@ -751,7 +749,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +821,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -862,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,22 +894,22 @@
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="10">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D2" s="10">
-        <v>1472</v>
+        <v>1442</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
